--- a/assigned_seats.xlsx
+++ b/assigned_seats.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Daryoush</t>
+          <t>Test4</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nathalie</t>
+          <t>Mahsa</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Danil</t>
+          <t>Karel</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gerrit</t>
+          <t>Nasrin</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Afaf</t>
+          <t>Miguel</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Caroline</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fabienne</t>
+          <t>Nathalie</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t xml:space="preserve">Ivan </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Niels</t>
+          <t>Afaf</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yanina</t>
+          <t>Geraldine</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Niels</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Alfiya</t>
+          <t>Test2</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Geraldine</t>
+          <t>Andrea</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Viktor</t>
+          <t>Em</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mahsa</t>
+          <t>Ariana</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ivan </t>
+          <t>Danil</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Karel</t>
+          <t>Test1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nasrin</t>
+          <t>Alfiya</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Daryoush</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Yanina</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sweta</t>
+          <t>Gerrit</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Fabienne</t>
         </is>
       </c>
     </row>

--- a/assigned_seats.xlsx
+++ b/assigned_seats.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Test4</t>
+          <t>Caroline</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mahsa</t>
+          <t>Niels</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Karel</t>
+          <t xml:space="preserve">Ivan </t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nasrin</t>
+          <t>Viktor</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jens</t>
+          <t>Geraldine</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t>Nasrin</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Karel</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nathalie</t>
+          <t>Alfiya</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ivan </t>
+          <t>Nathalie</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Afaf</t>
+          <t>Yanina</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Geraldine</t>
+          <t>Daryoush</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Niels</t>
+          <t>Ariana</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Test2</t>
+          <t>Em</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Fabienne</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Mahsa</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Danil</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Sweta</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Danil</t>
+          <t>Gerrit</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Test1</t>
+          <t>Alexander</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Alfiya</t>
+          <t>Alice</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Daryoush</t>
+          <t>Afaf</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yanina</t>
+          <t>Jens</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gerrit</t>
+          <t>Miguel</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fabienne</t>
+          <t>Andrea</t>
         </is>
       </c>
     </row>
